--- a/src/Outputs/deneme - deneme.xlsx
+++ b/src/Outputs/deneme - deneme.xlsx
@@ -1401,7 +1401,7 @@
       </c>
       <c r="G3" s="69" t="inlineStr">
         <is>
-          <t>19,07</t>
+          <t>19,05</t>
         </is>
       </c>
       <c r="L3" s="68" t="n"/>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="G4" s="69" t="inlineStr">
         <is>
-          <t>20,79</t>
+          <t>20,53</t>
         </is>
       </c>
       <c r="L4" s="68" t="n"/>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G5" s="69" t="inlineStr">
         <is>
-          <t>23,29</t>
+          <t>23,17</t>
         </is>
       </c>
       <c r="L5" s="68" t="n"/>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C8" s="119" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Access</t>
         </is>
       </c>
       <c r="H8" s="97" t="inlineStr">
@@ -1832,13 +1832,13 @@
       </c>
       <c r="B15" s="108" t="inlineStr">
         <is>
-          <t>Mikrodev MP 211 PLC</t>
+          <t>Reengen IoT Gateway GSM</t>
         </is>
       </c>
       <c r="C15" s="120" t="n"/>
       <c r="D15" s="120" t="n"/>
       <c r="E15" s="100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="100" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="G15" s="100" t="n">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="H15" s="140">
         <f>IF(F15=$F$3,E15*G15*$G$3, IF(F15=$F$4,E15*G15*$G$4, IF(F15=$F$5,E15*G15*$G$5, IF(F15=$F$2,E15*G15*$G$2,E15*G15))))</f>
@@ -1880,23 +1880,11 @@
       <c r="A16" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="109" t="inlineStr">
-        <is>
-          <t>Entes MPR 53S-96</t>
-        </is>
-      </c>
-      <c r="E16" s="100" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" s="100" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
-      <c r="G16" s="100" t="n">
-        <v>1694</v>
-      </c>
-      <c r="H16" s="140">
+      <c r="B16" s="109" t="inlineStr"/>
+      <c r="E16" s="94" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" s="23">
         <f>IF(F16=$F$3,E16*G16*$G$3, IF(F16=$F$4,E16*G16*$G$4, IF(F16=$F$5,E16*G16*$G$5, IF(F16=$F$2,E16*G16*$G$2,E16*G16))))</f>
         <v/>
       </c>
@@ -1928,23 +1916,11 @@
       <c r="A17" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="109" t="inlineStr">
-        <is>
-          <t>Akım Trafosu(Adet - maks 200A) x3</t>
-        </is>
-      </c>
-      <c r="E17" s="100" t="n">
-        <v>18</v>
-      </c>
-      <c r="F17" s="100" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
-      </c>
-      <c r="G17" s="100" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="H17" s="140">
+      <c r="B17" s="109" t="inlineStr"/>
+      <c r="E17" s="94" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" s="23">
         <f>IF(F17=$F$3,E17*G17*$G$3, IF(F17=$F$4,E17*G17*$G$4, IF(F17=$F$5,E17*G17*$G$5, IF(F17=$F$2,E17*G17*$G$2,E17*G17))))</f>
         <v/>
       </c>
@@ -2012,23 +1988,11 @@
       <c r="A19" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="B19" s="109" t="inlineStr">
-        <is>
-          <t>Baylan Su Sayacı DN20 M-bus US</t>
-        </is>
-      </c>
-      <c r="E19" s="100" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="100" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G19" s="100" t="n">
-        <v>59.25</v>
-      </c>
-      <c r="H19" s="140">
+      <c r="B19" s="109" t="inlineStr"/>
+      <c r="E19" s="94" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" s="23">
         <f>IF(F19=$F$3,E19*G19*$G$3, IF(F19=$F$4,E19*G19*$G$4, IF(F19=$F$5,E19*G19*$G$5, IF(F19=$F$2,E19*G19*$G$2,E19*G19))))</f>
         <v/>
       </c>
